--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3097489.02784809</v>
+        <v>3093156.543027399</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>379.374738946291</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>103.740539259502</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>156.1271626621473</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>360.4619742408227</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>121.0066975960212</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>25.31590541686235</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>62.88528692724368</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>68.68642009465955</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>5.983388191319154</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="Y10" t="n">
-        <v>33.83411182775089</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.0280580960838</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.02356321678082</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>116.9323399797395</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>101.1785556175222</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>173.9610973318235</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187869</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613203</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,16 +2295,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>219.4517041866526</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>130.5513683573773</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>79.9081607862897</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>134.452563354727</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>13.79222725775367</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>134.0367616438396</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>139.3687739767481</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3198,13 +3198,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>34.45703212904686</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>173.8786999930968</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>25.52471385612597</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>133.3133845470781</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>207.4006376819559</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>163.3760574240877</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>73.93222849083736</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1498.518225097183</v>
+        <v>1714.909333753394</v>
       </c>
       <c r="C2" t="n">
-        <v>1129.555708156771</v>
+        <v>1345.946816812982</v>
       </c>
       <c r="D2" t="n">
-        <v>771.2900095500206</v>
+        <v>987.6811182062315</v>
       </c>
       <c r="E2" t="n">
-        <v>771.2900095500206</v>
+        <v>987.6811182062315</v>
       </c>
       <c r="F2" t="n">
-        <v>764.3445088008172</v>
+        <v>576.695213416624</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>158.7314053148109</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4363,19 +4363,19 @@
         <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W2" t="n">
-        <v>1871.983983358263</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X2" t="n">
-        <v>1498.518225097183</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y2" t="n">
-        <v>1498.518225097183</v>
+        <v>1714.909333753394</v>
       </c>
     </row>
     <row r="3">
@@ -4385,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>211.6471865296041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>211.6471865296041</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>555.4725825998845</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C5" t="n">
-        <v>555.4725825998845</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D5" t="n">
-        <v>555.4725825998845</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2574.920103547494</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y5" t="n">
-        <v>919.5755868835438</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="6">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C7" t="n">
-        <v>698.7120650600561</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D7" t="n">
-        <v>548.5954256477204</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E7" t="n">
-        <v>400.6823320653273</v>
+        <v>79.51460345355875</v>
       </c>
       <c r="F7" t="n">
-        <v>253.7923845674169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>253.7923845674169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1365.680170394969</v>
+        <v>802.0401021781393</v>
       </c>
       <c r="C8" t="n">
-        <v>996.7176534545576</v>
+        <v>433.0775852377275</v>
       </c>
       <c r="D8" t="n">
-        <v>996.7176534545576</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>610.9294008563134</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>603.9839001071099</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990285</v>
+        <v>2636.076575092838</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990285</v>
+        <v>2305.013687749267</v>
       </c>
       <c r="W8" t="n">
-        <v>2125.745768720171</v>
+        <v>1952.245032479153</v>
       </c>
       <c r="X8" t="n">
-        <v>1752.280010459091</v>
+        <v>1578.779274218073</v>
       </c>
       <c r="Y8" t="n">
-        <v>1752.280010459091</v>
+        <v>1188.639942242261</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5993065148977</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>484.4236418782191</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y10" t="n">
-        <v>450.2477713451374</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="11">
@@ -5032,37 +5032,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5071,13 +5071,13 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D13" t="n">
-        <v>695.5020655703109</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>547.5889719879178</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>400.6990244900074</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>233.5029252048874</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="14">
@@ -5269,31 +5269,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5369,7 +5369,7 @@
         <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1859.347605783499</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1604.663117577612</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1315.245947540652</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1087.256396642634</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>866.4638174991042</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5554,10 +5554,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>810.0653816078141</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2204.199099699508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1984.597634722449</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1984.597634722449</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.913146516562</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1440.495976479601</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1212.506425581584</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y19" t="n">
-        <v>991.7138464380538</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,10 +5764,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2356.04164637206</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>3966.646661122954</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>3744.978273055629</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6071,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>449.485266605716</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1581.823518162841</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="26">
@@ -6220,34 +6220,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>409.1360811687896</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3189.272672481338</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>3020.336489553431</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>2870.219850141096</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2722.306756558703</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2575.416809060792</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4471.231687421535</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>4182.156460765733</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V28" t="n">
-        <v>3927.471972559846</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W28" t="n">
-        <v>3638.054802522885</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X28" t="n">
-        <v>3410.065251624868</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y28" t="n">
-        <v>3189.272672481338</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="29">
@@ -6466,16 +6466,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,7 +6484,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>2876.560776129205</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>3473.939263755757</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3336.216066251167</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>3167.27988332326</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>3017.163243910925</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>2869.250150328532</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>2722.360202830621</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>2555.164103545501</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4221.331149328841</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V31" t="n">
-        <v>3966.646661122954</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W31" t="n">
-        <v>3966.646661122954</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X31" t="n">
-        <v>3738.657110224937</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y31" t="n">
-        <v>3517.864531081407</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="32">
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6779,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511906</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2412.158000621627</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2412.158000621627</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>2123.082773965825</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1868.398285759938</v>
+        <v>1579.796507104226</v>
       </c>
       <c r="W34" t="n">
-        <v>1578.981115722978</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.99156482496</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="35">
@@ -6919,31 +6919,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7016,28 +7016,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>429.5088224239596</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>782.8410298377091</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C37" t="n">
-        <v>782.8410298377091</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253734</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>266.4891497944943</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>119.599202296584</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>119.599202296584</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2245.257395441675</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2025.655930464616</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1736.580703808814</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1481.896215602927</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1192.479045565966</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X37" t="n">
-        <v>964.4894946679489</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.4894946679489</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="38">
@@ -7162,10 +7162,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7265,13 +7265,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>559.0424953278208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278208</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
         <v>261.0127623330919</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1478.890260236569</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1189.473090199608</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>961.4835393015907</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>740.6909601580605</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,40 +7399,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>2490.32382148308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>3087.702309109632</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N42" t="n">
-        <v>3715.300272664238</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>4267.210002903525</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2517.442480416598</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P45" t="n">
-        <v>2517.442480416598</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,10 +8069,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0.5874149221285734</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.27114962944307</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>169.2521344095047</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>47.43691740069013</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>7.065188669821083</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,22 +24129,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>146.8157004124958</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>67.07129414993841</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>14.86967966555397</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>145.8014946027475</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>45.37941682721026</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>151.7319110345152</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>6.257951202384305</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>146.8157004124961</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>146.5692538725977</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>78.2589433307312</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>114.7699989900979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>47.71290145456646</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>44.73700564187212</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>3.870763674540115</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>93.31459260779047</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>730701.547476092</v>
+        <v>730701.5474760919</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>730701.5474760918</v>
+        <v>730701.5474760919</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846412</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="H2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="J2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="K2" t="n">
         <v>686074.6097365053</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>686074.6097365054</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="K2" t="n">
-        <v>686074.6097365052</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365057</v>
       </c>
       <c r="M2" t="n">
         <v>686074.6097365053</v>
       </c>
       <c r="N2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="O2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365053</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577088</v>
+        <v>944372.7777577089</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670436</v>
+        <v>5067.592601670376</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670422</v>
       </c>
       <c r="G4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.59260167042</v>
       </c>
       <c r="I4" t="n">
         <v>5067.592601670437</v>
@@ -26444,7 +26444,7 @@
         <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="L4" t="n">
         <v>5067.592601670437</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-176005.9588210444</v>
+        <v>-176005.9588210443</v>
       </c>
       <c r="C6" t="n">
-        <v>413961.9203935</v>
+        <v>413961.9203935002</v>
       </c>
       <c r="D6" t="n">
-        <v>413961.9203934999</v>
+        <v>413961.9203935002</v>
       </c>
       <c r="E6" t="n">
-        <v>-364488.2904467808</v>
+        <v>-364835.6697011379</v>
       </c>
       <c r="F6" t="n">
-        <v>579884.4873109279</v>
+        <v>579537.1080565712</v>
       </c>
       <c r="G6" t="n">
-        <v>579884.4873109281</v>
+        <v>579537.1080565711</v>
       </c>
       <c r="H6" t="n">
-        <v>579884.4873109279</v>
+        <v>579537.1080565712</v>
       </c>
       <c r="I6" t="n">
-        <v>579884.4873109281</v>
+        <v>579537.1080565715</v>
       </c>
       <c r="J6" t="n">
-        <v>403461.2681183349</v>
+        <v>403113.8888639783</v>
       </c>
       <c r="K6" t="n">
-        <v>579884.4873109277</v>
+        <v>579537.1080565709</v>
       </c>
       <c r="L6" t="n">
-        <v>579884.4873109282</v>
+        <v>579537.108056571</v>
       </c>
       <c r="M6" t="n">
-        <v>455675.9766028693</v>
+        <v>455328.5973485123</v>
       </c>
       <c r="N6" t="n">
-        <v>579884.4873109281</v>
+        <v>579537.108056571</v>
       </c>
       <c r="O6" t="n">
-        <v>579884.4873109279</v>
+        <v>579537.1080565712</v>
       </c>
       <c r="P6" t="n">
-        <v>579884.4873109278</v>
+        <v>579537.1080565711</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245871</v>
+        <v>990.2318361245873</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.40943107450403</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>220.1822335048552</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>130.3958356744437</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>200.3937499721748</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.27186742265792</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>53.40901521295032</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>120.1051426060689</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>93.28560191455148</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853701</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>345.0977499261354</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>210.4649321663386</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28025,7 +28025,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>123.9289676594881</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.7505415243439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-5.268850791002159e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>209.9499448422525</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O15" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>616.375287159485</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>246.9596973201445</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>301.9817606876396</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,16 +33022,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>456.3459017226598</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,16 +33040,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>211.3773391483997</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33268,13 +33268,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>139.5228722182826</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33283,7 +33283,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33499,10 +33499,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33520,7 +33520,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33736,16 +33736,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M36" t="n">
-        <v>395.1848490935921</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33757,10 +33757,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33985,16 +33985,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>230.1272937575231</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>391.925066926462</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>248.7449369209185</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34231,7 +34231,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q45" t="n">
-        <v>175.960367665998</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>71.39556506237828</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35664,7 +35664,7 @@
         <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924729</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O15" t="n">
-        <v>167.3462379728918</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>473.7790427150405</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>161.9999866016181</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,16 +36688,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>71.39556506237817</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>8.181160134949316</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36931,7 +36931,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37384,16 +37384,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M36" t="n">
-        <v>253.0508151715738</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37405,10 +37405,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>98.78558167418976</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37861,16 +37861,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>110.1905571410443</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37879,7 +37879,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.9785935799765</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_7_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3093156.543027399</v>
+        <v>3094917.073330185</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>44.42634427467741</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>103.740539259502</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>25.3159054168623</v>
+        <v>205.1478855987998</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>73.95253260066195</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>121.0066975960212</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>25.31590541686235</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>353.5759586385877</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>5.983388191319154</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>126.5499088748948</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>101.780687729549</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174139</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.0280580960838</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>144.108843301494</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>1.799772605716619</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>101.1785556175222</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>20.43112068613203</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695504</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.8176890312854</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364133</v>
       </c>
       <c r="T24" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3046392154442</v>
       </c>
       <c r="U24" t="n">
         <v>225.7478006422472</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>130.5513683573773</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012146</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>113.642703083326</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>134.452563354727</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2958,13 +2958,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>119.6760079449695</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>139.3687739767481</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>173.8786999930968</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3432,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>25.52471385612597</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>26.05480806223599</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>104.8913819999782</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>172.1249649038638</v>
       </c>
     </row>
     <row r="44">
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>73.93222849083736</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1714.909333753394</v>
+        <v>885.7444020895362</v>
       </c>
       <c r="C2" t="n">
-        <v>1345.946816812982</v>
+        <v>516.7818851491245</v>
       </c>
       <c r="D2" t="n">
-        <v>987.6811182062315</v>
+        <v>516.7818851491245</v>
       </c>
       <c r="E2" t="n">
-        <v>987.6811182062315</v>
+        <v>516.7818851491245</v>
       </c>
       <c r="F2" t="n">
-        <v>576.695213416624</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>158.7314053148109</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.514423990285</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2478.514423990285</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2105.048665729205</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1714.909333753394</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,19 +4409,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>702.55736257324</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="Y4" t="n">
-        <v>702.55736257324</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1206.080506218543</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C5" t="n">
-        <v>837.1179892781315</v>
+        <v>821.0484290197721</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>462.7827304130216</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>462.7827304130216</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>455.8372296638182</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2574.920103547494</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2356.285436519557</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2356.285436519557</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2356.285436519557</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W5" t="n">
-        <v>2356.285436519557</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X5" t="n">
-        <v>1982.819678258477</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y5" t="n">
-        <v>1592.680346282665</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.4805193761945</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C7" t="n">
-        <v>377.5443364482876</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>227.4276970359519</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>79.51460345355875</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.0401021781393</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C8" t="n">
-        <v>433.0775852377275</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2636.076575092838</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2636.076575092838</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2305.013687749267</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1952.245032479153</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1578.779274218073</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>1188.639942242261</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5071,13 +5071,13 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5129,13 +5129,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951537</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770323</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C13" t="n">
-        <v>634.3345878491255</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.70136564882</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072721</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5360,19 +5360,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,16 +5527,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5597,22 +5597,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.843151638089</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>572.9069687101821</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>322.7933138979686</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000582</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5740,34 +5740,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>493.2161050975141</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>343.0994656851783</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5977,37 +5977,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192638</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111728</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075834</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332391</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014773</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355933</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6016,10 +6016,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6056,10 +6056,10 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
         <v>93.81666304797187</v>
@@ -6068,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756271</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756271</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756271</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>840.8417932021803</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951534</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190822</v>
       </c>
       <c r="P24" t="n">
-        <v>2515.675093211831</v>
+        <v>2319.799627685892</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459586</v>
+        <v>653.747479770887</v>
       </c>
       <c r="C25" t="n">
-        <v>599.6019060180517</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="D25" t="n">
-        <v>449.485266605716</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="E25" t="n">
-        <v>449.485266605716</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782961</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038352</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797761</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832668</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487573</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510514</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854712</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854707</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817746</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761984</v>
+        <v>835.3959446011268</v>
       </c>
     </row>
     <row r="26">
@@ -6220,19 +6220,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6265,10 +6265,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.207143961552</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O27" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6387,10 +6387,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2227.361618603201</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1972.677130397314</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1683.259960360354</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1455.270409462336</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1234.477830318806</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6548,19 +6548,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>662.1522880254209</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C31" t="n">
-        <v>493.2161050975141</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D31" t="n">
-        <v>343.0994656851783</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="G31" t="n">
         <v>175.9033664000583</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1836.684541140056</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V31" t="n">
-        <v>1582.000052934169</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W31" t="n">
-        <v>1292.582882897208</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X31" t="n">
-        <v>1064.593331999191</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y31" t="n">
-        <v>843.8007528556607</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="32">
@@ -6697,22 +6697,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6782,16 +6782,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.9487421954783</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>491.0125592675714</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675714</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6894,16 +6894,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1579.796507104226</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1290.379337067265</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1062.389786169248</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>841.597207025718</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6934,16 +6934,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,10 +6973,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171301</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892232</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D37" t="n">
-        <v>414.4022433768874</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E37" t="n">
-        <v>266.4891497944943</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>119.599202296584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>119.599202296584</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.645095638608</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2237.790261293512</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="38">
@@ -7174,10 +7174,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7268,7 +7268,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7311,22 +7311,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>1344.266747951538</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2387.388512467612</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7614,7 +7614,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,22 +7730,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>620.8230468926974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>470.7064074803617</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>322.7933138979686</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>175.9033664000583</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-1.058226885266866e-11</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5874149221285734</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>142.414155035097</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.4949402405072</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>47.43691740069013</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>146.8157004124958</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>186.1428431935225</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24369,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>14.86967966555397</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>138.494940240502</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>45.37941682721026</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>45.8481303472993</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>146.8157004124961</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>78.2589433307312</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>114.7699989900979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>40.32043864788569</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>62.35543909864963</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25560,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
     </row>
     <row r="44">
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>93.31459260779047</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>730701.5474760918</v>
+        <v>730701.5474760919</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>730701.5474760918</v>
+        <v>730701.5474760919</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>730701.5474760919</v>
+        <v>730701.5474760918</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846412</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365055</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365059</v>
       </c>
       <c r="J2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="M2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="K2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365053</v>
-      </c>
       <c r="N2" t="n">
-        <v>686074.6097365054</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="O2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577089</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.05386368179461e-09</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925908</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26426,31 +26426,31 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670376</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670422</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="H4" t="n">
         <v>5067.592601670437</v>
       </c>
-      <c r="H4" t="n">
-        <v>5067.59260167042</v>
-      </c>
       <c r="I4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670263</v>
       </c>
       <c r="J4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="L4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
         <v>5067.592601670437</v>
@@ -26490,7 +26490,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-176005.9588210443</v>
+        <v>-176005.9588210444</v>
       </c>
       <c r="C6" t="n">
-        <v>413961.9203935002</v>
+        <v>413961.9203935</v>
       </c>
       <c r="D6" t="n">
-        <v>413961.9203935002</v>
+        <v>413961.9203934998</v>
       </c>
       <c r="E6" t="n">
-        <v>-364835.6697011379</v>
+        <v>-364523.0283722163</v>
       </c>
       <c r="F6" t="n">
-        <v>579537.1080565712</v>
+        <v>579849.7493854924</v>
       </c>
       <c r="G6" t="n">
-        <v>579537.1080565711</v>
+        <v>579849.7493854924</v>
       </c>
       <c r="H6" t="n">
-        <v>579537.1080565712</v>
+        <v>579849.7493854928</v>
       </c>
       <c r="I6" t="n">
-        <v>579537.1080565715</v>
+        <v>579849.7493854907</v>
       </c>
       <c r="J6" t="n">
-        <v>403113.8888639783</v>
+        <v>403426.5301929017</v>
       </c>
       <c r="K6" t="n">
-        <v>579537.1080565709</v>
+        <v>579849.7493854926</v>
       </c>
       <c r="L6" t="n">
-        <v>579537.108056571</v>
+        <v>579849.7493854925</v>
       </c>
       <c r="M6" t="n">
-        <v>455328.5973485123</v>
+        <v>455641.2386774338</v>
       </c>
       <c r="N6" t="n">
-        <v>579537.108056571</v>
+        <v>579849.7493854925</v>
       </c>
       <c r="O6" t="n">
-        <v>579537.1080565712</v>
+        <v>579849.7493854924</v>
       </c>
       <c r="P6" t="n">
-        <v>579537.1080565711</v>
+        <v>579849.7493854925</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26758,7 +26758,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341676</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245873</v>
+        <v>990.2318361245871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,13 +26980,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.728484105318785e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-1.625744980386367e-12</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>362.449701467034</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>220.1822335048552</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>200.3937499721748</v>
+        <v>20.56176979023732</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>339.831637420133</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>53.40901521295032</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>120.1051426060689</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>53.3000871031237</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>210.4649321663386</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>8.415712917443457</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>123.9289676594881</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-5.268850791002159e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>416.4300581532619</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L21" t="n">
-        <v>246.9596973201445</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348444</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135352</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067236</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663292</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817589</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162579</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175694</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159445</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460046</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236523</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669234</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043732</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.3175546292903</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651533</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078754</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659455</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521106</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.995851442076</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862135</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>639.8517673857108</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437257</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214709</v>
       </c>
       <c r="Q24" t="n">
-        <v>140.7358547888808</v>
+        <v>375.5996128485298</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742449</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937736</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275958</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189908</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121574</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869289</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796265</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355184</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.751989058816</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392053</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106796</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920064</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.353214041732</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515931</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.918144667048</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532775</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099324</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467224</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,40 +33022,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>211.3773391483997</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33268,10 +33268,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>248.7449369209195</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33283,7 +33283,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L36" t="n">
-        <v>246.9596973201446</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33754,7 +33754,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34213,25 +34213,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>307.3280120589134</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>274.2960242312436</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>477.985332142731</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L21" t="n">
-        <v>108.4053175402703</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317682</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396429</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367784</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462706</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902842</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193536</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243179</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683827</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924739</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902411</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754093</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641952</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>508.5100553023775</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992812</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071407</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.7540807028592577</v>
+        <v>235.6178387625083</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295373</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096355</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191322</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010459</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899081</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060461</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066255</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998987</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.39556506237817</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36916,10 +36916,10 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>110.1905571410453</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36931,7 +36931,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L36" t="n">
-        <v>108.4053175402704</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37402,7 +37402,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
